--- a/publication/part1000/CR_PDM_1/WG_Number_excel_table.xlsx
+++ b/publication/part1000/CR_PDM_1/WG_Number_excel_table.xlsx
@@ -756,7 +756,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="F54" sqref="A52:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
